--- a/lab11a/lab11a.xlsx
+++ b/lab11a/lab11a.xlsx
@@ -238,11 +238,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="352899176"/>
-        <c:axId val="352898784"/>
+        <c:axId val="254529008"/>
+        <c:axId val="254528224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="352899176"/>
+        <c:axId val="254529008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -299,12 +299,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352898784"/>
+        <c:crossAx val="254528224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352898784"/>
+        <c:axId val="254528224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -361,7 +361,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352899176"/>
+        <c:crossAx val="254529008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -660,11 +660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406331680"/>
-        <c:axId val="406334816"/>
+        <c:axId val="254528616"/>
+        <c:axId val="254530184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406331680"/>
+        <c:axId val="254528616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,12 +721,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406334816"/>
+        <c:crossAx val="254530184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406334816"/>
+        <c:axId val="254530184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +783,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406331680"/>
+        <c:crossAx val="254528616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/lab11a/lab11a.xlsx
+++ b/lab11a/lab11a.xlsx
@@ -10,12 +10,12 @@
     <sheet name="U = f(U)" sheetId="1" r:id="rId1"/>
     <sheet name="U = f(R)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Uвх, В</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Rн, Ом</t>
+  </si>
+  <si>
+    <t>Iн, А</t>
   </si>
 </sst>
 </file>
@@ -238,11 +241,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="254529008"/>
-        <c:axId val="254528224"/>
+        <c:axId val="214378608"/>
+        <c:axId val="214379000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="254529008"/>
+        <c:axId val="214378608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -299,12 +302,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254528224"/>
+        <c:crossAx val="214379000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254528224"/>
+        <c:axId val="214379000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -361,7 +364,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254529008"/>
+        <c:crossAx val="214378608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -660,11 +663,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="254528616"/>
-        <c:axId val="254530184"/>
+        <c:axId val="214381744"/>
+        <c:axId val="281596904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="254528616"/>
+        <c:axId val="214381744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,12 +724,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254530184"/>
+        <c:crossAx val="281596904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254530184"/>
+        <c:axId val="281596904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +786,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254528616"/>
+        <c:crossAx val="214381744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2481,219 +2484,318 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>0.54100000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <f>B2/A2 * 1000</f>
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>1.117</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C25" si="0">B3/A3 * 1000</f>
+        <v>55.849999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43</v>
       </c>
       <c r="B4" s="1">
         <v>1.9359999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>45.023255813953483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>63</v>
       </c>
       <c r="B5" s="1">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>44.603174603174601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>222.18</v>
       </c>
       <c r="B6" s="1">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>23.629489603024574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>248.12</v>
       </c>
       <c r="B7" s="1">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>21.360631952281153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>283.26</v>
       </c>
       <c r="B8" s="1">
         <v>5.32</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>18.781331638777097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>330</v>
       </c>
       <c r="B9" s="1">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>16.212121212121211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>404.76</v>
       </c>
       <c r="B10" s="1">
         <v>5.38</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>13.291827255657672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>507.46</v>
       </c>
       <c r="B11" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>10.641232806526624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>609.04</v>
       </c>
       <c r="B12" s="1">
         <v>5.41</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8828319978983323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>795.92</v>
       </c>
       <c r="B13" s="1">
         <v>5.44</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8348577746507191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>891.3</v>
       </c>
       <c r="B14" s="1">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1146639739706048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>941.18</v>
       </c>
       <c r="B15" s="1">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7906032852376805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>970.59</v>
       </c>
       <c r="B16" s="1">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6151413058036868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1122.1099999999999</v>
       </c>
       <c r="B17" s="1">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8569213356979271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1202.31</v>
       </c>
       <c r="B18" s="1">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5329407557119223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1286.07</v>
       </c>
       <c r="B19" s="1">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2377164540032819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1322.03</v>
       </c>
       <c r="B20" s="1">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1300121782410386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1885.71</v>
       </c>
       <c r="B21" s="1">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8954611260480139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1942.86</v>
       </c>
       <c r="B22" s="1">
         <v>5.47</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8154370361220056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2642.98</v>
       </c>
       <c r="B23" s="1">
         <v>5.47</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0696335197390825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3688.46</v>
       </c>
       <c r="B24" s="1">
         <v>5.47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4830037468211663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5421.49</v>
       </c>
       <c r="B25" s="1">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0107922360827006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>

--- a/lab11a/lab11a.xlsx
+++ b/lab11a/lab11a.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="U = f(U)" sheetId="1" r:id="rId1"/>
     <sheet name="U = f(R)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,7 +76,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -89,9 +92,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -232,6 +235,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4CD-4C77-B576-F84509D8C663}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -299,7 +307,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="214379000"/>
@@ -361,7 +369,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="214378608"/>
@@ -402,7 +410,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -414,9 +422,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -427,38 +435,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -470,22 +447,22 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -654,6 +631,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F918-4F91-8FC8-8662D08EC0C7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -687,7 +669,84 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>н</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>, Ом</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -709,7 +768,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -721,7 +780,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281596904"/>
@@ -749,7 +808,80 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>U</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>вых</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, В</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -771,7 +903,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -783,7 +915,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="214381744"/>
@@ -807,12 +939,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -824,7 +951,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1986,16 +2113,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5714</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2017,10 +2144,124 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2">
+            <v>16</v>
+          </cell>
+          <cell r="C2">
+            <v>0.14000000000000001</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>39</v>
+          </cell>
+          <cell r="C3">
+            <v>0.23599999999999999</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>60</v>
+          </cell>
+          <cell r="C4">
+            <v>0.32300000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>79</v>
+          </cell>
+          <cell r="C5">
+            <v>0.433</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>104</v>
+          </cell>
+          <cell r="C6">
+            <v>0.52</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>125</v>
+          </cell>
+          <cell r="C7">
+            <v>0.59099999999999997</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>149</v>
+          </cell>
+          <cell r="C8">
+            <v>0.67900000000000005</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>174</v>
+          </cell>
+          <cell r="C9">
+            <v>0.78</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>209</v>
+          </cell>
+          <cell r="C10">
+            <v>0.88400000000000001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>242</v>
+          </cell>
+          <cell r="C11">
+            <v>1.05</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>273</v>
+          </cell>
+          <cell r="C12">
+            <v>1.1499999999999999</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>291</v>
+          </cell>
+          <cell r="C13">
+            <v>1.2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2058,7 +2299,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2130,7 +2371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2310,13 +2551,13 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2324,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1.091</v>
       </c>
@@ -2338,7 +2579,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2.98</v>
       </c>
@@ -2352,7 +2593,7 @@
         <v>507.46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4.97</v>
       </c>
@@ -2360,7 +2601,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6.99</v>
       </c>
@@ -2368,7 +2609,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9.0399999999999991</v>
       </c>
@@ -2376,7 +2617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>11.05</v>
       </c>
@@ -2384,7 +2625,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>13.03</v>
       </c>
@@ -2392,7 +2633,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>15</v>
       </c>
@@ -2400,7 +2641,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>16.96</v>
       </c>
@@ -2408,7 +2649,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>19.02</v>
       </c>
@@ -2416,7 +2657,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>21</v>
       </c>
@@ -2424,7 +2665,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>21</v>
       </c>
@@ -2432,7 +2673,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>24.6</v>
       </c>
@@ -2440,39 +2681,39 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
@@ -2487,12 +2728,12 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2503,7 +2744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -2515,7 +2756,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -2527,7 +2768,7 @@
         <v>55.849999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43</v>
       </c>
@@ -2539,7 +2780,7 @@
         <v>45.023255813953483</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>63</v>
       </c>
@@ -2551,7 +2792,7 @@
         <v>44.603174603174601</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>222.18</v>
       </c>
@@ -2563,7 +2804,7 @@
         <v>23.629489603024574</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>248.12</v>
       </c>
@@ -2575,7 +2816,7 @@
         <v>21.360631952281153</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>283.26</v>
       </c>
@@ -2587,7 +2828,7 @@
         <v>18.781331638777097</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>330</v>
       </c>
@@ -2599,7 +2840,7 @@
         <v>16.212121212121211</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>404.76</v>
       </c>
@@ -2611,7 +2852,7 @@
         <v>13.291827255657672</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>507.46</v>
       </c>
@@ -2623,7 +2864,7 @@
         <v>10.641232806526624</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>609.04</v>
       </c>
@@ -2635,7 +2876,7 @@
         <v>8.8828319978983323</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>795.92</v>
       </c>
@@ -2647,7 +2888,7 @@
         <v>6.8348577746507191</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>891.3</v>
       </c>
@@ -2659,7 +2900,7 @@
         <v>6.1146639739706048</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>941.18</v>
       </c>
@@ -2671,7 +2912,7 @@
         <v>5.7906032852376805</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>970.59</v>
       </c>
@@ -2683,7 +2924,7 @@
         <v>5.6151413058036868</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1122.1099999999999</v>
       </c>
@@ -2695,7 +2936,7 @@
         <v>4.8569213356979271</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1202.31</v>
       </c>
@@ -2707,7 +2948,7 @@
         <v>4.5329407557119223</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1286.07</v>
       </c>
@@ -2719,7 +2960,7 @@
         <v>4.2377164540032819</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1322.03</v>
       </c>
@@ -2731,7 +2972,7 @@
         <v>4.1300121782410386</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1885.71</v>
       </c>
@@ -2743,7 +2984,7 @@
         <v>2.8954611260480139</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1942.86</v>
       </c>
@@ -2755,7 +2996,7 @@
         <v>2.8154370361220056</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2642.98</v>
       </c>
@@ -2767,7 +3008,7 @@
         <v>2.0696335197390825</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3688.46</v>
       </c>
@@ -2779,7 +3020,7 @@
         <v>1.4830037468211663</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5421.49</v>
       </c>
@@ -2791,11 +3032,11 @@
         <v>1.0107922360827006</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>

--- a/lab11a/lab11a.xlsx
+++ b/lab11a/lab11a.xlsx
@@ -10,9 +10,6 @@
     <sheet name="U = f(U)" sheetId="1" r:id="rId1"/>
     <sheet name="U = f(R)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -117,22 +114,22 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -237,7 +234,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B4CD-4C77-B576-F84509D8C663}"/>
+              <c16:uniqueId val="{00000000-47E2-442D-BBE9-231D83BF65A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -249,11 +246,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214378608"/>
-        <c:axId val="214379000"/>
+        <c:axId val="214381744"/>
+        <c:axId val="281596904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214378608"/>
+        <c:axId val="214381744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -273,7 +270,84 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>U</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>вх</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>, Ом</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -295,7 +369,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -310,12 +384,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214379000"/>
+        <c:crossAx val="281596904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214379000"/>
+        <c:axId val="281596904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -335,7 +409,80 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>U</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>вых</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, В</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -357,7 +504,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -372,7 +519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214378608"/>
+        <c:crossAx val="214381744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -393,12 +540,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2078,21 +2220,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>603885</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2142,120 +2286,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>16</v>
-          </cell>
-          <cell r="C2">
-            <v>0.14000000000000001</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>39</v>
-          </cell>
-          <cell r="C3">
-            <v>0.23599999999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>60</v>
-          </cell>
-          <cell r="C4">
-            <v>0.32300000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>79</v>
-          </cell>
-          <cell r="C5">
-            <v>0.433</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>104</v>
-          </cell>
-          <cell r="C6">
-            <v>0.52</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>125</v>
-          </cell>
-          <cell r="C7">
-            <v>0.59099999999999997</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>149</v>
-          </cell>
-          <cell r="C8">
-            <v>0.67900000000000005</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>174</v>
-          </cell>
-          <cell r="C9">
-            <v>0.78</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>209</v>
-          </cell>
-          <cell r="C10">
-            <v>0.88400000000000001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>242</v>
-          </cell>
-          <cell r="C11">
-            <v>1.05</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>273</v>
-          </cell>
-          <cell r="C12">
-            <v>1.1499999999999999</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>291</v>
-          </cell>
-          <cell r="C13">
-            <v>1.2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2548,7 +2578,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lab11a/lab11a.xlsx
+++ b/lab11a/lab11a.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="U = f(U)" sheetId="1" r:id="rId1"/>
     <sheet name="U = f(R)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,7 +73,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -89,9 +89,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -114,22 +114,22 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="3"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -175,7 +175,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>24.6</c:v>
@@ -232,7 +232,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-47E2-442D-BBE9-231D83BF65A1}"/>
             </c:ext>
@@ -246,11 +246,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214381744"/>
-        <c:axId val="281596904"/>
+        <c:axId val="291182232"/>
+        <c:axId val="291181840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214381744"/>
+        <c:axId val="291182232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -290,30 +290,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>U</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>вх</a:t>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>вх, Ом</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1400" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>, Ом</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400">
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                </a:endParaRPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -343,7 +327,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -369,7 +353,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -381,15 +365,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281596904"/>
+        <c:crossAx val="291181840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="281596904"/>
+        <c:axId val="291181840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +400,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -429,26 +413,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>U</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>вых</a:t>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>вых, В</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>, В</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400">
-                  <a:effectLst/>
-                </a:endParaRPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -466,7 +438,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -478,7 +450,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -504,7 +476,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -516,10 +488,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214381744"/>
+        <c:crossAx val="291182232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -540,7 +512,12 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -552,7 +529,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -564,9 +541,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -589,22 +566,22 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="3"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -773,7 +750,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F918-4F91-8FC8-8662D08EC0C7}"/>
             </c:ext>
@@ -787,11 +764,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214381744"/>
-        <c:axId val="281596904"/>
+        <c:axId val="291183800"/>
+        <c:axId val="291181056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214381744"/>
+        <c:axId val="291183800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,30 +808,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>R</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>н</a:t>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>н, Ом</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1400" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>, Ом</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400">
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                </a:endParaRPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -884,7 +845,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -910,7 +871,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -922,15 +883,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281596904"/>
+        <c:crossAx val="291181056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="281596904"/>
+        <c:axId val="291181056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +918,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -970,26 +931,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>U</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>вых</a:t>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>вых, В</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>, В</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400">
-                  <a:effectLst/>
-                </a:endParaRPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1007,7 +956,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1019,7 +968,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1045,7 +994,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1057,10 +1006,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214381744"/>
+        <c:crossAx val="291183800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1081,7 +1030,12 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1093,7 +1047,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1101,6 +1055,408 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12715048118985126"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.8138425196850394"/>
+          <c:h val="0.66070246427529888"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'U = f(R)'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.023255813953483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.603174603174601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.629489603024574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.360631952281153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.781331638777097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.212121212121211</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.291827255657672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.641232806526624</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8828319978983323</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.8348577746507191</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1146639739706048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.7906032852376805</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6151413058036868</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8569213356979271</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5329407557119223</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2377164540032819</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1300121782410386</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8954611260480139</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8154370361220056</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0696335197390825</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4830037468211663</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0107922360827006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'U = f(R)'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="293979944"/>
+        <c:axId val="293976808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="293979944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293976808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="293976808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293979944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1184,6 +1540,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1701,6 +2097,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2285,13 +3197,136 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.3875</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05</cdr:x>
+      <cdr:y>0.6125</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-194310" y="1257300"/>
+          <a:ext cx="617220" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>U</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>вых,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> В</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48833</cdr:x>
+      <cdr:y>0.89444</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.6</cdr:x>
+      <cdr:y>0.98611</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2232660" y="2453640"/>
+          <a:ext cx="510540" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>н,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> мА</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2329,7 +3364,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2401,7 +3436,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2578,16 +3613,16 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2595,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1.091</v>
       </c>
@@ -2609,7 +3644,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2.98</v>
       </c>
@@ -2623,7 +3658,7 @@
         <v>507.46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4.97</v>
       </c>
@@ -2631,7 +3666,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>6.99</v>
       </c>
@@ -2639,7 +3674,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>9.0399999999999991</v>
       </c>
@@ -2647,7 +3682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>11.05</v>
       </c>
@@ -2655,7 +3690,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>13.03</v>
       </c>
@@ -2663,7 +3698,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>15</v>
       </c>
@@ -2671,7 +3706,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>16.96</v>
       </c>
@@ -2679,7 +3714,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>19.02</v>
       </c>
@@ -2687,7 +3722,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>21</v>
       </c>
@@ -2695,15 +3730,15 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>5.56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>24.6</v>
       </c>
@@ -2711,39 +3746,39 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
@@ -2758,12 +3793,12 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="B2" sqref="B2:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2774,7 +3809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -2786,7 +3821,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -2798,7 +3833,7 @@
         <v>55.849999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43</v>
       </c>
@@ -2810,7 +3845,7 @@
         <v>45.023255813953483</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>63</v>
       </c>
@@ -2822,7 +3857,7 @@
         <v>44.603174603174601</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>222.18</v>
       </c>
@@ -2834,7 +3869,7 @@
         <v>23.629489603024574</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>248.12</v>
       </c>
@@ -2846,7 +3881,7 @@
         <v>21.360631952281153</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>283.26</v>
       </c>
@@ -2858,7 +3893,7 @@
         <v>18.781331638777097</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>330</v>
       </c>
@@ -2870,7 +3905,7 @@
         <v>16.212121212121211</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>404.76</v>
       </c>
@@ -2882,7 +3917,7 @@
         <v>13.291827255657672</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>507.46</v>
       </c>
@@ -2894,7 +3929,7 @@
         <v>10.641232806526624</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>609.04</v>
       </c>
@@ -2906,7 +3941,7 @@
         <v>8.8828319978983323</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>795.92</v>
       </c>
@@ -2918,7 +3953,7 @@
         <v>6.8348577746507191</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>891.3</v>
       </c>
@@ -2930,7 +3965,7 @@
         <v>6.1146639739706048</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>941.18</v>
       </c>
@@ -2942,7 +3977,7 @@
         <v>5.7906032852376805</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>970.59</v>
       </c>
@@ -2954,7 +3989,7 @@
         <v>5.6151413058036868</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1122.1099999999999</v>
       </c>
@@ -2966,7 +4001,7 @@
         <v>4.8569213356979271</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1202.31</v>
       </c>
@@ -2978,7 +4013,7 @@
         <v>4.5329407557119223</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1286.07</v>
       </c>
@@ -2990,7 +4025,7 @@
         <v>4.2377164540032819</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1322.03</v>
       </c>
@@ -3002,7 +4037,7 @@
         <v>4.1300121782410386</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1885.71</v>
       </c>
@@ -3014,7 +4049,7 @@
         <v>2.8954611260480139</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1942.86</v>
       </c>
@@ -3026,7 +4061,7 @@
         <v>2.8154370361220056</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2642.98</v>
       </c>
@@ -3038,7 +4073,7 @@
         <v>2.0696335197390825</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3688.46</v>
       </c>
@@ -3050,7 +4085,7 @@
         <v>1.4830037468211663</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5421.49</v>
       </c>
@@ -3062,11 +4097,11 @@
         <v>1.0107922360827006</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>

--- a/lab11a/lab11a.xlsx
+++ b/lab11a/lab11a.xlsx
@@ -104,7 +104,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11424939790007275"/>
+          <c:y val="4.2274360600295921E-2"/>
+          <c:w val="0.8482611429986141"/>
+          <c:h val="0.76578606177715425"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -246,11 +256,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291182232"/>
-        <c:axId val="291181840"/>
+        <c:axId val="279063904"/>
+        <c:axId val="279452448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291182232"/>
+        <c:axId val="279063904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,12 +378,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291181840"/>
+        <c:crossAx val="279452448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291181840"/>
+        <c:axId val="279452448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,7 +501,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291182232"/>
+        <c:crossAx val="279063904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -556,7 +566,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11424939790007275"/>
+          <c:y val="4.6384145055871809E-2"/>
+          <c:w val="0.83245581833893456"/>
+          <c:h val="0.76637863341086154"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -589,10 +609,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'U = f(R)'!$A$2:$A$25</c:f>
+              <c:f>'U = f(R)'!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -606,145 +626,115 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>222.18</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>248.12</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>283.26</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>330</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>404.76</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>507.46</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>609.04</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>795.92</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>891.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>941.18</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>970.59</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>1122.1099999999999</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>1202.31</c:v>
+                  <c:v>1322.03</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1286.07</c:v>
+                  <c:v>1885.71</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1322.03</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1885.71</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>1942.86</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2642.98</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3688.46</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5421.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'U = f(R)'!$B$2:$B$25</c:f>
+              <c:f>'U = f(R)'!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.54100000000000004</c:v>
+                  <c:v>0.59599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9359999999999999</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5.25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>5.3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>5.32</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>5.35</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>5.38</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>5.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>5.41</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>5.44</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.45</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.45</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>5.45</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.45</c:v>
+                  <c:v>5.46</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.45</c:v>
+                  <c:v>5.46</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.46</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>5.47</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.47</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.47</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,11 +754,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291183800"/>
-        <c:axId val="291181056"/>
+        <c:axId val="279623288"/>
+        <c:axId val="279623672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291183800"/>
+        <c:axId val="279623288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,12 +876,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291181056"/>
+        <c:crossAx val="279623672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291181056"/>
+        <c:axId val="279623672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,7 +999,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291183800"/>
+        <c:crossAx val="279623288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1117,162 +1107,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'U = f(R)'!$C$2:$C$25</c:f>
+              <c:f>'U = f(R)'!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>54.1</c:v>
+                  <c:v>59.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>55.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.023255813953483</c:v>
+                  <c:v>49.069767441860463</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44.603174603174601</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>41.09756097560976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.785123966942145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.293507636226511</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>23.629489603024574</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>21.360631952281153</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>18.781331638777097</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>16.212121212121211</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>13.291827255657672</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>10.641232806526624</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>8.8828319978983323</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>6.8348577746507191</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.1146639739706048</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.7906032852376805</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>5.6151413058036868</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.8569213356979271</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5329407557119223</c:v>
+                  <c:v>4.1300121782410386</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.2377164540032819</c:v>
+                  <c:v>2.8954611260480139</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1300121782410386</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.8954611260480139</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>2.8154370361220056</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.0696335197390825</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.4830037468211663</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.0107922360827006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'U = f(R)'!$B$2:$B$25</c:f>
+              <c:f>'U = f(R)'!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.54100000000000004</c:v>
+                  <c:v>0.59599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9359999999999999</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5.25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>5.3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>5.32</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>5.35</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>5.38</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>5.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>5.41</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>5.44</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.45</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.45</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>5.45</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.45</c:v>
+                  <c:v>5.46</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.45</c:v>
+                  <c:v>5.46</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.46</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>5.47</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.47</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.47</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,11 +1247,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="293979944"/>
-        <c:axId val="293976808"/>
+        <c:axId val="279230584"/>
+        <c:axId val="279558096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="293979944"/>
+        <c:axId val="279230584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,12 +1308,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293976808"/>
+        <c:crossAx val="279558096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="293976808"/>
+        <c:axId val="279558096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1370,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293979944"/>
+        <c:crossAx val="279230584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3613,7 +3573,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3790,10 +3750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C25"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3814,11 +3774,11 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>0.54100000000000004</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="C2" s="1">
         <f>B2/A2 * 1000</f>
-        <v>54.1</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3829,7 +3789,7 @@
         <v>1.117</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C25" si="0">B3/A3 * 1000</f>
+        <f t="shared" ref="C3:C8" si="0">B3/A3 * 1000</f>
         <v>55.849999999999994</v>
       </c>
     </row>
@@ -3838,11 +3798,11 @@
         <v>43</v>
       </c>
       <c r="B4" s="1">
-        <v>1.9359999999999999</v>
+        <v>2.11</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>45.023255813953483</v>
+        <v>49.069767441860463</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3859,251 +3819,193 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>222.18</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1">
-        <v>5.25</v>
+        <v>3.37</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>23.629489603024574</v>
+        <v>41.09756097560976</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>248.12</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1">
-        <v>5.3</v>
+        <v>4.33</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>21.360631952281153</v>
+        <v>35.785123966942145</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>283.26</v>
+        <v>159.11000000000001</v>
       </c>
       <c r="B8" s="1">
-        <v>5.32</v>
+        <v>4.82</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>18.781331638777097</v>
+        <v>30.293507636226511</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>330</v>
+        <v>222.18</v>
       </c>
       <c r="B9" s="1">
-        <v>5.35</v>
+        <v>5.25</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>16.212121212121211</v>
+        <f>B9/A9 * 1000</f>
+        <v>23.629489603024574</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>404.76</v>
+        <v>248.12</v>
       </c>
       <c r="B10" s="1">
-        <v>5.38</v>
+        <v>5.3</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>13.291827255657672</v>
+        <f>B10/A10 * 1000</f>
+        <v>21.360631952281153</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>507.46</v>
+        <v>283.26</v>
       </c>
       <c r="B11" s="1">
-        <v>5.4</v>
+        <v>5.32</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>10.641232806526624</v>
+        <f>B11/A11 * 1000</f>
+        <v>18.781331638777097</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>609.04</v>
+        <v>330</v>
       </c>
       <c r="B12" s="1">
-        <v>5.41</v>
+        <v>5.35</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>8.8828319978983323</v>
+        <f>B12/A12 * 1000</f>
+        <v>16.212121212121211</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>795.92</v>
+        <v>404.76</v>
       </c>
       <c r="B13" s="1">
-        <v>5.44</v>
+        <v>5.38</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>6.8348577746507191</v>
+        <f>B13/A13 * 1000</f>
+        <v>13.291827255657672</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>891.3</v>
+        <v>507.46</v>
       </c>
       <c r="B14" s="1">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>6.1146639739706048</v>
+        <f>B14/A14 * 1000</f>
+        <v>10.641232806526624</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>941.18</v>
+        <v>609.04</v>
       </c>
       <c r="B15" s="1">
-        <v>5.45</v>
+        <v>5.41</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>5.7906032852376805</v>
+        <f>B15/A15 * 1000</f>
+        <v>8.8828319978983323</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>970.59</v>
+        <v>795.92</v>
       </c>
       <c r="B16" s="1">
-        <v>5.45</v>
+        <v>5.44</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>5.6151413058036868</v>
+        <f>B16/A16 * 1000</f>
+        <v>6.8348577746507191</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>1122.1099999999999</v>
+        <v>970.59</v>
       </c>
       <c r="B17" s="1">
         <v>5.45</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>4.8569213356979271</v>
+        <f>B17/A17 * 1000</f>
+        <v>5.6151413058036868</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>1202.31</v>
+        <v>1322.03</v>
       </c>
       <c r="B18" s="1">
-        <v>5.45</v>
+        <v>5.46</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5329407557119223</v>
+        <f>B18/A18 * 1000</f>
+        <v>4.1300121782410386</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>1286.07</v>
+        <v>1885.71</v>
       </c>
       <c r="B19" s="1">
-        <v>5.45</v>
+        <v>5.46</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2377164540032819</v>
+        <f>B19/A19 * 1000</f>
+        <v>2.8954611260480139</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>1322.03</v>
+        <v>1942.86</v>
       </c>
       <c r="B20" s="1">
-        <v>5.46</v>
+        <v>5.47</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>4.1300121782410386</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>1885.71</v>
-      </c>
-      <c r="B21" s="1">
-        <v>5.46</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8954611260480139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>1942.86</v>
-      </c>
-      <c r="B22" s="1">
-        <v>5.47</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f>B20/A20 * 1000</f>
         <v>2.8154370361220056</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>2642.98</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5.47</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0696335197390825</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>3688.46</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5.47</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4830037468211663</v>
-      </c>
-    </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>5421.49</v>
-      </c>
-      <c r="B25" s="1">
-        <v>5.48</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0107922360827006</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab11a/lab11a.xlsx
+++ b/lab11a/lab11a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="U = f(U)" sheetId="1" r:id="rId1"/>
@@ -109,10 +109,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11424939790007275"/>
-          <c:y val="4.2274360600295921E-2"/>
-          <c:w val="0.8482611429986141"/>
-          <c:h val="0.76578606177715425"/>
+          <c:x val="8.7728647295517687E-2"/>
+          <c:y val="3.8046924540266328E-2"/>
+          <c:w val="0.87478200605332102"/>
+          <c:h val="0.81994466359016538"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -256,13 +256,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279063904"/>
-        <c:axId val="279452448"/>
+        <c:axId val="253354952"/>
+        <c:axId val="253357696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279063904"/>
+        <c:axId val="253354952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -311,7 +312,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50549836790043212"/>
+              <c:y val="0.92297740345319501"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -378,12 +386,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279452448"/>
+        <c:crossAx val="253357696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279452448"/>
+        <c:axId val="253357696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,7 +442,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5759125335588646E-2"/>
+              <c:y val="0.37143625905562572"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -501,7 +516,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279063904"/>
+        <c:crossAx val="253354952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -571,10 +586,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11424939790007275"/>
+          <c:x val="9.3360877729652125E-2"/>
           <c:y val="4.6384145055871809E-2"/>
-          <c:w val="0.83245581833893456"/>
-          <c:h val="0.76637863341086154"/>
+          <c:w val="0.85334443510159486"/>
+          <c:h val="0.82603553191197854"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -754,13 +769,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279623288"/>
-        <c:axId val="279623672"/>
+        <c:axId val="253354560"/>
+        <c:axId val="253355344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279623288"/>
+        <c:axId val="253354560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -809,7 +825,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51367410245594358"/>
+              <c:y val="0.92759800438815398"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -876,12 +899,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279623672"/>
+        <c:crossAx val="253355344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279623672"/>
+        <c:axId val="253355344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +955,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.1987523542336223E-2"/>
+              <c:y val="0.38434591649198208"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -999,7 +1029,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279623288"/>
+        <c:crossAx val="253354560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1069,10 +1099,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12715048118985126"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.8138425196850394"/>
-          <c:h val="0.66070246427529888"/>
+          <c:x val="7.7568185470322709E-2"/>
+          <c:y val="9.6893461072783849E-2"/>
+          <c:w val="0.87115514781431547"/>
+          <c:h val="0.78468223592793929"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1247,13 +1277,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279230584"/>
-        <c:axId val="279558096"/>
+        <c:axId val="255085736"/>
+        <c:axId val="255088480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279230584"/>
+        <c:axId val="255085736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1308,12 +1340,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279558096"/>
+        <c:crossAx val="255088480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279558096"/>
+        <c:axId val="255088480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1370,7 +1403,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279230584"/>
+        <c:crossAx val="255085736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3098,10 +3131,10 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>603885</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3135,10 +3168,10 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3159,16 +3192,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3239,11 +3272,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.48833</cdr:x>
-      <cdr:y>0.89444</cdr:y>
+      <cdr:y>0.92695</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.6</cdr:x>
-      <cdr:y>0.98611</cdr:y>
+      <cdr:x>0.54731</cdr:x>
+      <cdr:y>0.97678</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3252,8 +3285,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2232660" y="2453640"/>
-          <a:ext cx="510540" cy="251460"/>
+          <a:off x="4011318" y="4562919"/>
+          <a:ext cx="484482" cy="245301"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3572,8 +3605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3752,8 +3785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3861,7 +3894,7 @@
         <v>5.25</v>
       </c>
       <c r="C9" s="1">
-        <f>B9/A9 * 1000</f>
+        <f t="shared" ref="C9:C20" si="1">B9/A9 * 1000</f>
         <v>23.629489603024574</v>
       </c>
     </row>
@@ -3873,7 +3906,7 @@
         <v>5.3</v>
       </c>
       <c r="C10" s="1">
-        <f>B10/A10 * 1000</f>
+        <f t="shared" si="1"/>
         <v>21.360631952281153</v>
       </c>
     </row>
@@ -3885,7 +3918,7 @@
         <v>5.32</v>
       </c>
       <c r="C11" s="1">
-        <f>B11/A11 * 1000</f>
+        <f t="shared" si="1"/>
         <v>18.781331638777097</v>
       </c>
     </row>
@@ -3897,7 +3930,7 @@
         <v>5.35</v>
       </c>
       <c r="C12" s="1">
-        <f>B12/A12 * 1000</f>
+        <f t="shared" si="1"/>
         <v>16.212121212121211</v>
       </c>
     </row>
@@ -3909,7 +3942,7 @@
         <v>5.38</v>
       </c>
       <c r="C13" s="1">
-        <f>B13/A13 * 1000</f>
+        <f t="shared" si="1"/>
         <v>13.291827255657672</v>
       </c>
     </row>
@@ -3921,7 +3954,7 @@
         <v>5.4</v>
       </c>
       <c r="C14" s="1">
-        <f>B14/A14 * 1000</f>
+        <f t="shared" si="1"/>
         <v>10.641232806526624</v>
       </c>
     </row>
@@ -3933,7 +3966,7 @@
         <v>5.41</v>
       </c>
       <c r="C15" s="1">
-        <f>B15/A15 * 1000</f>
+        <f t="shared" si="1"/>
         <v>8.8828319978983323</v>
       </c>
     </row>
@@ -3945,7 +3978,7 @@
         <v>5.44</v>
       </c>
       <c r="C16" s="1">
-        <f>B16/A16 * 1000</f>
+        <f t="shared" si="1"/>
         <v>6.8348577746507191</v>
       </c>
     </row>
@@ -3957,7 +3990,7 @@
         <v>5.45</v>
       </c>
       <c r="C17" s="1">
-        <f>B17/A17 * 1000</f>
+        <f t="shared" si="1"/>
         <v>5.6151413058036868</v>
       </c>
     </row>
@@ -3969,7 +4002,7 @@
         <v>5.46</v>
       </c>
       <c r="C18" s="1">
-        <f>B18/A18 * 1000</f>
+        <f t="shared" si="1"/>
         <v>4.1300121782410386</v>
       </c>
     </row>
@@ -3981,7 +4014,7 @@
         <v>5.46</v>
       </c>
       <c r="C19" s="1">
-        <f>B19/A19 * 1000</f>
+        <f t="shared" si="1"/>
         <v>2.8954611260480139</v>
       </c>
     </row>
@@ -3993,7 +4026,7 @@
         <v>5.47</v>
       </c>
       <c r="C20" s="1">
-        <f>B20/A20 * 1000</f>
+        <f t="shared" si="1"/>
         <v>2.8154370361220056</v>
       </c>
     </row>

--- a/lab11a/lab11a.xlsx
+++ b/lab11a/lab11a.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="U = f(U)" sheetId="1" r:id="rId1"/>
     <sheet name="U = f(R)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,7 +73,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -89,9 +89,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -109,9 +109,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7728647295517687E-2"/>
+          <c:x val="0.10703144236351975"/>
           <c:y val="3.8046924540266328E-2"/>
-          <c:w val="0.87478200605332102"/>
+          <c:w val="0.85547923499925527"/>
           <c:h val="0.81994466359016538"/>
         </c:manualLayout>
       </c:layout>
@@ -124,22 +124,22 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -242,7 +242,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-47E2-442D-BBE9-231D83BF65A1}"/>
             </c:ext>
@@ -288,7 +288,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -301,14 +301,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>U</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
+                  <a:rPr lang="ru-RU" sz="1100"/>
                   <a:t>вх, Ом</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -333,7 +333,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -345,7 +345,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -371,7 +371,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -383,7 +383,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="253357696"/>
@@ -418,7 +418,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -431,14 +431,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>U</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
+                  <a:rPr lang="ru-RU" sz="1100"/>
                   <a:t>вых, В</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -463,7 +463,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -475,11 +475,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -501,7 +501,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -513,7 +513,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="253354952"/>
@@ -538,10 +538,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -554,7 +551,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -566,9 +563,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -586,10 +583,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3360877729652125E-2"/>
+          <c:x val="0.13937402689279779"/>
           <c:y val="4.6384145055871809E-2"/>
-          <c:w val="0.85334443510159486"/>
-          <c:h val="0.82603553191197854"/>
+          <c:w val="0.80733120969917938"/>
+          <c:h val="0.78716282913615376"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -601,22 +598,22 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -755,7 +752,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F918-4F91-8FC8-8662D08EC0C7}"/>
             </c:ext>
@@ -801,7 +798,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -814,14 +811,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>R</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
+                  <a:rPr lang="ru-RU" sz="1100"/>
                   <a:t>н, Ом</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -846,7 +843,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -858,7 +855,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -884,7 +881,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -896,7 +893,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="253355344"/>
@@ -931,7 +928,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -944,14 +941,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>U</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
+                  <a:rPr lang="ru-RU" sz="1100"/>
                   <a:t>вых, В</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -976,7 +973,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -988,11 +985,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1014,7 +1011,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1026,7 +1023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="253354560"/>
@@ -1050,12 +1047,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1067,7 +1059,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1079,9 +1071,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1099,10 +1091,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.7568185470322709E-2"/>
+          <c:x val="0.10091785100702126"/>
           <c:y val="9.6893461072783849E-2"/>
-          <c:w val="0.87115514781431547"/>
-          <c:h val="0.78468223592793929"/>
+          <c:w val="0.84780547196907952"/>
+          <c:h val="0.77367498848004468"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1114,22 +1106,22 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1268,6 +1260,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01F5-4917-AAD8-352C374DE6DC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1303,7 +1300,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1337,7 +1334,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="255088480"/>
@@ -1366,7 +1363,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1400,7 +1397,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="255085736"/>
@@ -1424,12 +1421,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1441,7 +1433,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3128,13 +3120,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596222</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3168,10 +3160,10 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>373069</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3192,16 +3184,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3317,9 +3309,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3357,7 +3349,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3429,7 +3421,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3605,17 +3597,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3623,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1.091</v>
       </c>
@@ -3637,7 +3629,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2.98</v>
       </c>
@@ -3651,7 +3643,7 @@
         <v>507.46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4.97</v>
       </c>
@@ -3659,7 +3651,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6.99</v>
       </c>
@@ -3667,7 +3659,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9.0399999999999991</v>
       </c>
@@ -3675,7 +3667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>11.05</v>
       </c>
@@ -3683,7 +3675,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>13.03</v>
       </c>
@@ -3691,7 +3683,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>15</v>
       </c>
@@ -3699,7 +3691,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>16.96</v>
       </c>
@@ -3707,7 +3699,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>19.02</v>
       </c>
@@ -3715,7 +3707,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>21</v>
       </c>
@@ -3723,7 +3715,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>23</v>
       </c>
@@ -3731,7 +3723,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>24.6</v>
       </c>
@@ -3739,39 +3731,39 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
@@ -3785,13 +3777,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3802,7 +3794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -3814,7 +3806,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -3826,7 +3818,7 @@
         <v>55.849999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43</v>
       </c>
@@ -3838,7 +3830,7 @@
         <v>49.069767441860463</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>63</v>
       </c>
@@ -3850,7 +3842,7 @@
         <v>44.603174603174601</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>82</v>
       </c>
@@ -3862,7 +3854,7 @@
         <v>41.09756097560976</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>121</v>
       </c>
@@ -3874,7 +3866,7 @@
         <v>35.785123966942145</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>159.11000000000001</v>
       </c>
@@ -3886,7 +3878,7 @@
         <v>30.293507636226511</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>222.18</v>
       </c>
@@ -3898,7 +3890,7 @@
         <v>23.629489603024574</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>248.12</v>
       </c>
@@ -3910,7 +3902,7 @@
         <v>21.360631952281153</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>283.26</v>
       </c>
@@ -3922,7 +3914,7 @@
         <v>18.781331638777097</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>330</v>
       </c>
@@ -3934,7 +3926,7 @@
         <v>16.212121212121211</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>404.76</v>
       </c>
@@ -3946,7 +3938,7 @@
         <v>13.291827255657672</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>507.46</v>
       </c>
@@ -3958,7 +3950,7 @@
         <v>10.641232806526624</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>609.04</v>
       </c>
@@ -3970,7 +3962,7 @@
         <v>8.8828319978983323</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>795.92</v>
       </c>
@@ -3982,7 +3974,7 @@
         <v>6.8348577746507191</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>970.59</v>
       </c>
@@ -3994,7 +3986,7 @@
         <v>5.6151413058036868</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1322.03</v>
       </c>
@@ -4006,7 +3998,7 @@
         <v>4.1300121782410386</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1885.71</v>
       </c>
@@ -4018,7 +4010,7 @@
         <v>2.8954611260480139</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1942.86</v>
       </c>
@@ -4030,12 +4022,12 @@
         <v>2.8154370361220056</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
